--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf1</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf1</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H2">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N2">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O2">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P2">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q2">
-        <v>57.573000523838</v>
+        <v>63.41819462481434</v>
       </c>
       <c r="R2">
-        <v>518.157004714542</v>
+        <v>570.763751623329</v>
       </c>
       <c r="S2">
-        <v>0.04696050819596746</v>
+        <v>0.06653887681353726</v>
       </c>
       <c r="T2">
-        <v>0.04696050819596745</v>
+        <v>0.06653887681353723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H3">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q3">
-        <v>20.632719175564</v>
+        <v>24.00039989143134</v>
       </c>
       <c r="R3">
-        <v>185.694472580076</v>
+        <v>216.003599022882</v>
       </c>
       <c r="S3">
-        <v>0.01682946813841998</v>
+        <v>0.02518141144350272</v>
       </c>
       <c r="T3">
-        <v>0.01682946813841997</v>
+        <v>0.02518141144350272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H4">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N4">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q4">
-        <v>29.801361664754</v>
+        <v>29.02206857302012</v>
       </c>
       <c r="R4">
-        <v>268.212254982786</v>
+        <v>261.198617157181</v>
       </c>
       <c r="S4">
-        <v>0.02430804502067276</v>
+        <v>0.03045018637125654</v>
       </c>
       <c r="T4">
-        <v>0.02430804502067276</v>
+        <v>0.03045018637125654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H5">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I5">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J5">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N5">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O5">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P5">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q5">
-        <v>9.466333276225333</v>
+        <v>9.384611905534555</v>
       </c>
       <c r="R5">
-        <v>85.19699948602801</v>
+        <v>84.461507149811</v>
       </c>
       <c r="S5">
-        <v>0.007721394010372565</v>
+        <v>0.009846409838997322</v>
       </c>
       <c r="T5">
-        <v>0.007721394010372563</v>
+        <v>0.009846409838997318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H6">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I6">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J6">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N6">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O6">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P6">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q6">
-        <v>11.588689716476</v>
+        <v>12.49652146265111</v>
       </c>
       <c r="R6">
-        <v>104.298207448284</v>
+        <v>112.46869316386</v>
       </c>
       <c r="S6">
-        <v>0.009452534234094081</v>
+        <v>0.01311145022529094</v>
       </c>
       <c r="T6">
-        <v>0.009452534234094078</v>
+        <v>0.01311145022529094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H7">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I7">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J7">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N7">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O7">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P7">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q7">
-        <v>37.754046234714</v>
+        <v>83.8310335471009</v>
       </c>
       <c r="R7">
-        <v>339.786416112426</v>
+        <v>754.479301923908</v>
       </c>
       <c r="S7">
-        <v>0.03079480279826887</v>
+        <v>0.08795619060652794</v>
       </c>
       <c r="T7">
-        <v>0.03079480279826886</v>
+        <v>0.08795619060652793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.404332</v>
       </c>
       <c r="I8">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J8">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N8">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O8">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P8">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q8">
-        <v>45.60328076039067</v>
+        <v>43.18461848121734</v>
       </c>
       <c r="R8">
-        <v>410.429526843516</v>
+        <v>388.661566330956</v>
       </c>
       <c r="S8">
-        <v>0.03719717958810615</v>
+        <v>0.04530964696111037</v>
       </c>
       <c r="T8">
-        <v>0.03719717958810614</v>
+        <v>0.04530964696111035</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.404332</v>
       </c>
       <c r="I9">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J9">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q9">
         <v>16.34307187140534</v>
@@ -1013,10 +1013,10 @@
         <v>147.087646842648</v>
       </c>
       <c r="S9">
-        <v>0.01333053607735179</v>
+        <v>0.01714728166639936</v>
       </c>
       <c r="T9">
-        <v>0.01333053607735178</v>
+        <v>0.01714728166639936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.404332</v>
       </c>
       <c r="I10">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J10">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N10">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q10">
-        <v>23.60550693335867</v>
+        <v>19.76257706918712</v>
       </c>
       <c r="R10">
-        <v>212.449562400228</v>
+        <v>177.863193622684</v>
       </c>
       <c r="S10">
-        <v>0.0192542787717825</v>
+        <v>0.02073505385803195</v>
       </c>
       <c r="T10">
-        <v>0.01925427877178249</v>
+        <v>0.02073505385803195</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.404332</v>
       </c>
       <c r="I11">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J11">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N11">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O11">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P11">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q11">
-        <v>7.498234419593778</v>
+        <v>6.390451307111555</v>
       </c>
       <c r="R11">
-        <v>67.48410977634401</v>
+        <v>57.514061764004</v>
       </c>
       <c r="S11">
-        <v>0.006116076906063354</v>
+        <v>0.006704912601539528</v>
       </c>
       <c r="T11">
-        <v>0.006116076906063353</v>
+        <v>0.006704912601539525</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.404332</v>
       </c>
       <c r="I12">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J12">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N12">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O12">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P12">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q12">
-        <v>9.179342156514668</v>
+        <v>8.509506063671113</v>
       </c>
       <c r="R12">
-        <v>82.61407940863202</v>
+        <v>76.58555457304001</v>
       </c>
       <c r="S12">
-        <v>0.007487304268536681</v>
+        <v>0.008928241793453895</v>
       </c>
       <c r="T12">
-        <v>0.007487304268536677</v>
+        <v>0.008928241793453891</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.404332</v>
       </c>
       <c r="I13">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J13">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N13">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O13">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P13">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q13">
-        <v>29.904787914772</v>
+        <v>57.0847407756569</v>
       </c>
       <c r="R13">
-        <v>269.1430912329481</v>
+        <v>513.7626669809121</v>
       </c>
       <c r="S13">
-        <v>0.02439240660018846</v>
+        <v>0.05989376640056412</v>
       </c>
       <c r="T13">
-        <v>0.02439240660018845</v>
+        <v>0.05989376640056412</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H14">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I14">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J14">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N14">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O14">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P14">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q14">
-        <v>2.213899041765333</v>
+        <v>162.2108063175787</v>
       </c>
       <c r="R14">
-        <v>19.925091375888</v>
+        <v>1459.897256858208</v>
       </c>
       <c r="S14">
-        <v>0.001805808680282671</v>
+        <v>0.1701928748247068</v>
       </c>
       <c r="T14">
-        <v>0.001805808680282671</v>
+        <v>0.1701928748247067</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H15">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I15">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J15">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q15">
-        <v>0.7934058811626666</v>
+        <v>61.38812751396267</v>
       </c>
       <c r="R15">
-        <v>7.140652930464</v>
+        <v>552.4931476256641</v>
       </c>
       <c r="S15">
-        <v>0.0006471565325076514</v>
+        <v>0.06440891417093439</v>
       </c>
       <c r="T15">
-        <v>0.0006471565325076512</v>
+        <v>0.06440891417093438</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H16">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I16">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J16">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N16">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q16">
-        <v>1.145974769989333</v>
+        <v>74.23253172192356</v>
       </c>
       <c r="R16">
-        <v>10.313772929904</v>
+        <v>668.0927854973121</v>
       </c>
       <c r="S16">
-        <v>0.0009347360236361796</v>
+        <v>0.07788536575384306</v>
       </c>
       <c r="T16">
-        <v>0.0009347360236361793</v>
+        <v>0.07788536575384304</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H17">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I17">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J17">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N17">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O17">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P17">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q17">
-        <v>0.3640162225102222</v>
+        <v>24.00392305678578</v>
       </c>
       <c r="R17">
-        <v>3.276146002592</v>
+        <v>216.035307511072</v>
       </c>
       <c r="S17">
-        <v>0.0002969167256373672</v>
+        <v>0.02518510797675946</v>
       </c>
       <c r="T17">
-        <v>0.0002969167256373672</v>
+        <v>0.02518510797675945</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H18">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I18">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J18">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N18">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O18">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P18">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q18">
-        <v>0.4456288333973334</v>
+        <v>31.96355296163556</v>
       </c>
       <c r="R18">
-        <v>4.010659500576001</v>
+        <v>287.67197665472</v>
       </c>
       <c r="S18">
-        <v>0.0003634855972887869</v>
+        <v>0.03353641530825065</v>
       </c>
       <c r="T18">
-        <v>0.0003634855972887867</v>
+        <v>0.03353641530825063</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H19">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I19">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J19">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N19">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O19">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P19">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q19">
-        <v>1.451785490096</v>
+        <v>214.4226846342684</v>
       </c>
       <c r="R19">
-        <v>13.066069410864</v>
+        <v>1929.804161708416</v>
       </c>
       <c r="S19">
-        <v>0.001184176328941054</v>
+        <v>0.2249739949759616</v>
       </c>
       <c r="T19">
-        <v>0.001184176328941054</v>
+        <v>0.2249739949759616</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H20">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I20">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J20">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N20">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O20">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P20">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q20">
-        <v>307.627987329734</v>
+        <v>1.421649650513667</v>
       </c>
       <c r="R20">
-        <v>2768.651885967606</v>
+        <v>12.794846854623</v>
       </c>
       <c r="S20">
-        <v>0.2509225937308141</v>
+        <v>0.001491606179065273</v>
       </c>
       <c r="T20">
-        <v>0.250922593730814</v>
+        <v>0.001491606179065273</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H21">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I21">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J21">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q21">
-        <v>110.246153845852</v>
+        <v>0.5380184711926667</v>
       </c>
       <c r="R21">
-        <v>992.2153846126681</v>
+        <v>4.842166240734</v>
       </c>
       <c r="S21">
-        <v>0.08992436322835748</v>
+        <v>0.000564493281303359</v>
       </c>
       <c r="T21">
-        <v>0.08992436322835744</v>
+        <v>0.000564493281303359</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H22">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I22">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J22">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N22">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q22">
-        <v>159.236670404522</v>
+        <v>0.6505895333052223</v>
       </c>
       <c r="R22">
-        <v>1433.130033640698</v>
+        <v>5.855305799747001</v>
       </c>
       <c r="S22">
-        <v>0.1298844058428732</v>
+        <v>0.0006826037396503639</v>
       </c>
       <c r="T22">
-        <v>0.1298844058428731</v>
+        <v>0.0006826037396503639</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H23">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I23">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J23">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N23">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O23">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P23">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q23">
-        <v>50.58115829748933</v>
+        <v>0.2103754342841111</v>
       </c>
       <c r="R23">
-        <v>455.230424677404</v>
+        <v>1.893378908557</v>
       </c>
       <c r="S23">
-        <v>0.04125747967239053</v>
+        <v>0.0002207275875517854</v>
       </c>
       <c r="T23">
-        <v>0.04125747967239052</v>
+        <v>0.0002207275875517853</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H24">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I24">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J24">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N24">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O24">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P24">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q24">
-        <v>61.92147813786801</v>
+        <v>0.2801353062022222</v>
       </c>
       <c r="R24">
-        <v>557.2933032408121</v>
+        <v>2.52121775582</v>
       </c>
       <c r="S24">
-        <v>0.05050742631341187</v>
+        <v>0.0002939202028816312</v>
       </c>
       <c r="T24">
-        <v>0.05050742631341185</v>
+        <v>0.0002939202028816312</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H25">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I25">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J25">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N25">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O25">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P25">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q25">
-        <v>201.729997586802</v>
+        <v>1.879245542221778</v>
       </c>
       <c r="R25">
-        <v>1815.569978281218</v>
+        <v>16.913209879996</v>
       </c>
       <c r="S25">
-        <v>0.1645448928986269</v>
+        <v>0.001971719447014296</v>
       </c>
       <c r="T25">
-        <v>0.1645448928986268</v>
+        <v>0.001971719447014296</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H26">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I26">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J26">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N26">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O26">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P26">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q26">
-        <v>10.10503848592667</v>
+        <v>1.847120537245667</v>
       </c>
       <c r="R26">
-        <v>90.94534637334</v>
+        <v>16.624084835211</v>
       </c>
       <c r="S26">
-        <v>0.008242366010478199</v>
+        <v>0.001938013634961687</v>
       </c>
       <c r="T26">
-        <v>0.008242366010478197</v>
+        <v>0.001938013634961687</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H27">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I27">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J27">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q27">
-        <v>3.621392309613334</v>
+        <v>0.6990364800486667</v>
       </c>
       <c r="R27">
-        <v>32.59253078652</v>
+        <v>6.291328320438001</v>
       </c>
       <c r="S27">
-        <v>0.002953857219340105</v>
+        <v>0.0007334346634952492</v>
       </c>
       <c r="T27">
-        <v>0.002953857219340104</v>
+        <v>0.0007334346634952492</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H28">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I28">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J28">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N28">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q28">
-        <v>5.230644639246667</v>
+        <v>0.845297776319889</v>
       </c>
       <c r="R28">
-        <v>47.07580175322</v>
+        <v>7.607679986879002</v>
       </c>
       <c r="S28">
-        <v>0.004266474358060115</v>
+        <v>0.0008868931848668299</v>
       </c>
       <c r="T28">
-        <v>0.004266474358060114</v>
+        <v>0.0008868931848668299</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H29">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I29">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J29">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N29">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O29">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P29">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q29">
-        <v>1.661502113951111</v>
+        <v>0.2733365320054444</v>
       </c>
       <c r="R29">
-        <v>14.95351902556</v>
+        <v>2.460028788049</v>
       </c>
       <c r="S29">
-        <v>0.001355235664806324</v>
+        <v>0.0002867868746398107</v>
       </c>
       <c r="T29">
-        <v>0.001355235664806324</v>
+        <v>0.0002867868746398107</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H30">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I30">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J30">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N30">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O30">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P30">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q30">
-        <v>2.034011681186667</v>
+        <v>0.3639741177488889</v>
       </c>
       <c r="R30">
-        <v>18.30610513068</v>
+        <v>3.27576705974</v>
       </c>
       <c r="S30">
-        <v>0.001659080147916051</v>
+        <v>0.0003818845542274868</v>
       </c>
       <c r="T30">
-        <v>0.001659080147916051</v>
+        <v>0.0003818845542274867</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H31">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I31">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J31">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N31">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O31">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P31">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q31">
-        <v>6.626475721780001</v>
+        <v>2.441665592019111</v>
       </c>
       <c r="R31">
-        <v>59.63828149602001</v>
+        <v>21.974990328172</v>
       </c>
       <c r="S31">
-        <v>0.005405010414806928</v>
+        <v>0.002561815059674411</v>
       </c>
       <c r="T31">
-        <v>0.005405010414806927</v>
+        <v>0.002561815059674411</v>
       </c>
     </row>
   </sheetData>
